--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Oprm1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Oprm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.45869284158457</v>
+        <v>0.138311</v>
       </c>
       <c r="N2">
-        <v>1.45869284158457</v>
+        <v>0.414933</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.05122185706868367</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.05122185706868368</v>
       </c>
       <c r="Q2">
-        <v>112.9950595473372</v>
+        <v>14.78248461538633</v>
       </c>
       <c r="R2">
-        <v>112.9950595473372</v>
+        <v>133.042361538477</v>
       </c>
       <c r="S2">
-        <v>0.1186672908611009</v>
+        <v>0.007728088992378567</v>
       </c>
       <c r="T2">
-        <v>0.1186672908611009</v>
+        <v>0.007728088992378568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.45869284158457</v>
+        <v>0.7121919999999999</v>
       </c>
       <c r="N3">
-        <v>1.45869284158457</v>
+        <v>2.136576</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2637519563119344</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2637519563119344</v>
       </c>
       <c r="Q3">
-        <v>112.2758586927279</v>
+        <v>76.11807653188265</v>
       </c>
       <c r="R3">
-        <v>112.2758586927279</v>
+        <v>685.0626887869439</v>
       </c>
       <c r="S3">
-        <v>0.1179119868916763</v>
+        <v>0.03979353164723035</v>
       </c>
       <c r="T3">
-        <v>0.1179119868916763</v>
+        <v>0.03979353164723035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>121.711490137238</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>121.711490137238</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.186451981700417</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.186451981700417</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.45869284158457</v>
+        <v>1.849731</v>
       </c>
       <c r="N4">
-        <v>1.45869284158457</v>
+        <v>5.549193</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.6850261866193819</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6850261866193819</v>
       </c>
       <c r="Q4">
-        <v>177.5396794017801</v>
+        <v>197.696640542713</v>
       </c>
       <c r="R4">
-        <v>177.5396794017801</v>
+        <v>1779.269764884417</v>
       </c>
       <c r="S4">
-        <v>0.186451981700417</v>
+        <v>0.1033532096504356</v>
       </c>
       <c r="T4">
-        <v>0.186451981700417</v>
+        <v>0.1033532096504356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>140.36676684056</v>
+        <v>77.232923</v>
       </c>
       <c r="H5">
-        <v>140.36676684056</v>
+        <v>231.698769</v>
       </c>
       <c r="I5">
-        <v>0.2150303296163119</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J5">
-        <v>0.2150303296163119</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.45869284158457</v>
+        <v>0.138311</v>
       </c>
       <c r="N5">
-        <v>1.45869284158457</v>
+        <v>0.414933</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.05122185706868367</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.05122185706868368</v>
       </c>
       <c r="Q5">
-        <v>204.7519979866952</v>
+        <v>10.682162813053</v>
       </c>
       <c r="R5">
-        <v>204.7519979866952</v>
+        <v>96.139465317477</v>
       </c>
       <c r="S5">
-        <v>0.2150303296163119</v>
+        <v>0.005584494555429854</v>
       </c>
       <c r="T5">
-        <v>0.2150303296163119</v>
+        <v>0.005584494555429855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>194.159493575321</v>
+        <v>77.232923</v>
       </c>
       <c r="H6">
-        <v>194.159493575321</v>
+        <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.2974363579169756</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J6">
-        <v>0.2974363579169756</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.45869284158457</v>
+        <v>0.7121919999999999</v>
       </c>
       <c r="N6">
-        <v>1.45869284158457</v>
+        <v>2.136576</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.2637519563119344</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.2637519563119344</v>
       </c>
       <c r="Q6">
-        <v>283.219063404006</v>
+        <v>55.004669897216</v>
       </c>
       <c r="R6">
-        <v>283.219063404006</v>
+        <v>495.042029074944</v>
       </c>
       <c r="S6">
-        <v>0.2974363579169756</v>
+        <v>0.02875571969272653</v>
       </c>
       <c r="T6">
-        <v>0.2974363579169756</v>
+        <v>0.02875571969272653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,796 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.1054306722281</v>
+        <v>77.232923</v>
       </c>
       <c r="H7">
-        <v>42.1054306722281</v>
+        <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.06450205301351841</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J7">
-        <v>0.06450205301351841</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.45869284158457</v>
+        <v>1.849731</v>
       </c>
       <c r="N7">
-        <v>1.45869284158457</v>
+        <v>5.549193</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.6850261866193819</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.6850261866193819</v>
       </c>
       <c r="Q7">
-        <v>61.41889031341452</v>
+        <v>142.860131893713</v>
       </c>
       <c r="R7">
-        <v>61.41889031341452</v>
+        <v>1285.741187043417</v>
       </c>
       <c r="S7">
-        <v>0.06450205301351841</v>
+        <v>0.07468540245179212</v>
       </c>
       <c r="T7">
-        <v>0.06450205301351841</v>
+        <v>0.07468540245179213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>136.676337</v>
+      </c>
+      <c r="H8">
+        <v>410.029011</v>
+      </c>
+      <c r="I8">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J8">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.138311</v>
+      </c>
+      <c r="N8">
+        <v>0.414933</v>
+      </c>
+      <c r="O8">
+        <v>0.05122185706868367</v>
+      </c>
+      <c r="P8">
+        <v>0.05122185706868368</v>
+      </c>
+      <c r="Q8">
+        <v>18.903840846807</v>
+      </c>
+      <c r="R8">
+        <v>170.134567621263</v>
+      </c>
+      <c r="S8">
+        <v>0.009882679952856323</v>
+      </c>
+      <c r="T8">
+        <v>0.009882679952856325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>136.676337</v>
+      </c>
+      <c r="H9">
+        <v>410.029011</v>
+      </c>
+      <c r="I9">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J9">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.7121919999999999</v>
+      </c>
+      <c r="N9">
+        <v>2.136576</v>
+      </c>
+      <c r="O9">
+        <v>0.2637519563119344</v>
+      </c>
+      <c r="P9">
+        <v>0.2637519563119344</v>
+      </c>
+      <c r="Q9">
+        <v>97.339793800704</v>
+      </c>
+      <c r="R9">
+        <v>876.058144206336</v>
+      </c>
+      <c r="S9">
+        <v>0.05088796698010029</v>
+      </c>
+      <c r="T9">
+        <v>0.05088796698010029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>136.676337</v>
+      </c>
+      <c r="H10">
+        <v>410.029011</v>
+      </c>
+      <c r="I10">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J10">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.849731</v>
+      </c>
+      <c r="N10">
+        <v>5.549193</v>
+      </c>
+      <c r="O10">
+        <v>0.6850261866193819</v>
+      </c>
+      <c r="P10">
+        <v>0.6850261866193819</v>
+      </c>
+      <c r="Q10">
+        <v>252.814457515347</v>
+      </c>
+      <c r="R10">
+        <v>2275.330117638123</v>
+      </c>
+      <c r="S10">
+        <v>0.1321680811495606</v>
+      </c>
+      <c r="T10">
+        <v>0.1321680811495606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H11">
+        <v>430.367156</v>
+      </c>
+      <c r="I11">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J11">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.138311</v>
+      </c>
+      <c r="N11">
+        <v>0.414933</v>
+      </c>
+      <c r="O11">
+        <v>0.05122185706868367</v>
+      </c>
+      <c r="P11">
+        <v>0.05122185706868368</v>
+      </c>
+      <c r="Q11">
+        <v>19.84150390450533</v>
+      </c>
+      <c r="R11">
+        <v>178.573535140548</v>
+      </c>
+      <c r="S11">
+        <v>0.01037287789611791</v>
+      </c>
+      <c r="T11">
+        <v>0.01037287789611792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H12">
+        <v>430.367156</v>
+      </c>
+      <c r="I12">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J12">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.7121919999999999</v>
+      </c>
+      <c r="N12">
+        <v>2.136576</v>
+      </c>
+      <c r="O12">
+        <v>0.2637519563119344</v>
+      </c>
+      <c r="P12">
+        <v>0.2637519563119344</v>
+      </c>
+      <c r="Q12">
+        <v>102.1680151886507</v>
+      </c>
+      <c r="R12">
+        <v>919.5121366978558</v>
+      </c>
+      <c r="S12">
+        <v>0.05341209776946165</v>
+      </c>
+      <c r="T12">
+        <v>0.05341209776946165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H13">
+        <v>430.367156</v>
+      </c>
+      <c r="I13">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J13">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.849731</v>
+      </c>
+      <c r="N13">
+        <v>5.549193</v>
+      </c>
+      <c r="O13">
+        <v>0.6850261866193819</v>
+      </c>
+      <c r="P13">
+        <v>0.6850261866193819</v>
+      </c>
+      <c r="Q13">
+        <v>265.354489945012</v>
+      </c>
+      <c r="R13">
+        <v>2388.190409505108</v>
+      </c>
+      <c r="S13">
+        <v>0.138723845563</v>
+      </c>
+      <c r="T13">
+        <v>0.138723845563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H14">
+        <v>595.794632</v>
+      </c>
+      <c r="I14">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J14">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.138311</v>
+      </c>
+      <c r="N14">
+        <v>0.414933</v>
+      </c>
+      <c r="O14">
+        <v>0.05122185706868367</v>
+      </c>
+      <c r="P14">
+        <v>0.05122185706868368</v>
+      </c>
+      <c r="Q14">
+        <v>27.46831711551733</v>
+      </c>
+      <c r="R14">
+        <v>247.214854039656</v>
+      </c>
+      <c r="S14">
+        <v>0.01436007576957966</v>
+      </c>
+      <c r="T14">
+        <v>0.01436007576957966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H15">
+        <v>595.794632</v>
+      </c>
+      <c r="I15">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J15">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.7121919999999999</v>
+      </c>
+      <c r="N15">
+        <v>2.136576</v>
+      </c>
+      <c r="O15">
+        <v>0.2637519563119344</v>
+      </c>
+      <c r="P15">
+        <v>0.2637519563119344</v>
+      </c>
+      <c r="Q15">
+        <v>141.4400568511147</v>
+      </c>
+      <c r="R15">
+        <v>1272.960511660032</v>
+      </c>
+      <c r="S15">
+        <v>0.07394300585266879</v>
+      </c>
+      <c r="T15">
+        <v>0.07394300585266879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H16">
+        <v>595.794632</v>
+      </c>
+      <c r="I16">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J16">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.849731</v>
+      </c>
+      <c r="N16">
+        <v>5.549193</v>
+      </c>
+      <c r="O16">
+        <v>0.6850261866193819</v>
+      </c>
+      <c r="P16">
+        <v>0.6850261866193819</v>
+      </c>
+      <c r="Q16">
+        <v>367.353266814664</v>
+      </c>
+      <c r="R16">
+        <v>3306.179401331976</v>
+      </c>
+      <c r="S16">
+        <v>0.1920474677599059</v>
+      </c>
+      <c r="T16">
+        <v>0.1920474677599059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H17">
+        <v>136.651993</v>
+      </c>
+      <c r="I17">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J17">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.138311</v>
+      </c>
+      <c r="N17">
+        <v>0.414933</v>
+      </c>
+      <c r="O17">
+        <v>0.05122185706868367</v>
+      </c>
+      <c r="P17">
+        <v>0.05122185706868368</v>
+      </c>
+      <c r="Q17">
+        <v>6.300157934607666</v>
+      </c>
+      <c r="R17">
+        <v>56.701421411469</v>
+      </c>
+      <c r="S17">
+        <v>0.003293639902321357</v>
+      </c>
+      <c r="T17">
+        <v>0.003293639902321357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H18">
+        <v>136.651993</v>
+      </c>
+      <c r="I18">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J18">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.7121919999999999</v>
+      </c>
+      <c r="N18">
+        <v>2.136576</v>
+      </c>
+      <c r="O18">
+        <v>0.2637519563119344</v>
+      </c>
+      <c r="P18">
+        <v>0.2637519563119344</v>
+      </c>
+      <c r="Q18">
+        <v>32.44081873288533</v>
+      </c>
+      <c r="R18">
+        <v>291.967368595968</v>
+      </c>
+      <c r="S18">
+        <v>0.01695963436974681</v>
+      </c>
+      <c r="T18">
+        <v>0.01695963436974681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H19">
+        <v>136.651993</v>
+      </c>
+      <c r="I19">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J19">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.849731</v>
+      </c>
+      <c r="N19">
+        <v>5.549193</v>
+      </c>
+      <c r="O19">
+        <v>0.6850261866193819</v>
+      </c>
+      <c r="P19">
+        <v>0.6850261866193819</v>
+      </c>
+      <c r="Q19">
+        <v>84.256475887961</v>
+      </c>
+      <c r="R19">
+        <v>758.308282991649</v>
+      </c>
+      <c r="S19">
+        <v>0.04404818004468759</v>
+      </c>
+      <c r="T19">
+        <v>0.04404818004468759</v>
       </c>
     </row>
   </sheetData>
